--- a/vocab.xlsx
+++ b/vocab.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/30a71f8744a5e74f/Desktop/ushistoryunit1app/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{E6588902-FFD4-43C1-989D-65183A6336CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="7" documentId="8_{E6588902-FFD4-43C1-989D-65183A6336CF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{AABD0059-533E-4627-AD9F-043A69A923C7}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{249B6878-2165-4D19-B3F5-E977C8C476C3}"/>
   </bookViews>
@@ -34,9 +34,6 @@
     <t>definition</t>
   </si>
   <si>
-    <t>example_usage</t>
-  </si>
-  <si>
     <t>Settlement</t>
   </si>
   <si>
@@ -260,6 +257,9 @@
   </si>
   <si>
     <t xml:space="preserve">A great time of abandonment for the church followed the cold sermons and unpersonal attitude of the Puritan Church. A great time of revival brought people back to the church due to traveling revivalist preachers such as Jonathan Edwards who preached salvation through a personal conversion and relationship with God rather than just church membership. </t>
+  </si>
+  <si>
+    <t>example</t>
   </si>
 </sst>
 </file>
@@ -1123,7 +1123,7 @@
   <dimension ref="A1:C26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection activeCell="E16" sqref="E16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1136,282 +1136,282 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
         <v>3</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>4</v>
-      </c>
-      <c r="C2" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B3" t="s">
         <v>6</v>
       </c>
-      <c r="B3" t="s">
+      <c r="C3" t="s">
         <v>7</v>
-      </c>
-      <c r="C3" t="s">
-        <v>8</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>8</v>
+      </c>
+      <c r="B4" t="s">
         <v>9</v>
       </c>
-      <c r="B4" t="s">
+      <c r="C4" t="s">
         <v>10</v>
-      </c>
-      <c r="C4" t="s">
-        <v>11</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
+        <v>11</v>
+      </c>
+      <c r="B5" t="s">
         <v>12</v>
       </c>
-      <c r="B5" t="s">
+      <c r="C5" t="s">
         <v>13</v>
-      </c>
-      <c r="C5" t="s">
-        <v>14</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
+        <v>14</v>
+      </c>
+      <c r="B6" t="s">
         <v>15</v>
       </c>
-      <c r="B6" t="s">
+      <c r="C6" t="s">
         <v>16</v>
-      </c>
-      <c r="C6" t="s">
-        <v>17</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
+        <v>17</v>
+      </c>
+      <c r="B7" t="s">
         <v>18</v>
       </c>
-      <c r="B7" t="s">
+      <c r="C7" t="s">
         <v>19</v>
-      </c>
-      <c r="C7" t="s">
-        <v>20</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
+        <v>20</v>
+      </c>
+      <c r="B8" t="s">
         <v>21</v>
       </c>
-      <c r="B8" t="s">
+      <c r="C8" t="s">
         <v>22</v>
-      </c>
-      <c r="C8" t="s">
-        <v>23</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
+        <v>23</v>
+      </c>
+      <c r="B9" t="s">
         <v>24</v>
       </c>
-      <c r="B9" t="s">
+      <c r="C9" t="s">
         <v>25</v>
-      </c>
-      <c r="C9" t="s">
-        <v>26</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
+        <v>26</v>
+      </c>
+      <c r="B10" t="s">
         <v>27</v>
       </c>
-      <c r="B10" t="s">
+      <c r="C10" t="s">
         <v>28</v>
-      </c>
-      <c r="C10" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
+        <v>29</v>
+      </c>
+      <c r="B11" t="s">
         <v>30</v>
       </c>
-      <c r="B11" t="s">
+      <c r="C11" t="s">
         <v>31</v>
-      </c>
-      <c r="C11" t="s">
-        <v>32</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
+        <v>32</v>
+      </c>
+      <c r="B12" t="s">
         <v>33</v>
       </c>
-      <c r="B12" t="s">
+      <c r="C12" t="s">
         <v>34</v>
-      </c>
-      <c r="C12" t="s">
-        <v>35</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
+        <v>35</v>
+      </c>
+      <c r="B13" t="s">
         <v>36</v>
       </c>
-      <c r="B13" t="s">
+      <c r="C13" t="s">
         <v>37</v>
-      </c>
-      <c r="C13" t="s">
-        <v>38</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
+        <v>38</v>
+      </c>
+      <c r="B14" t="s">
         <v>39</v>
       </c>
-      <c r="B14" t="s">
+      <c r="C14" t="s">
         <v>40</v>
-      </c>
-      <c r="C14" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
+        <v>41</v>
+      </c>
+      <c r="B15" t="s">
         <v>42</v>
       </c>
-      <c r="B15" t="s">
+      <c r="C15" t="s">
         <v>43</v>
-      </c>
-      <c r="C15" t="s">
-        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
+        <v>44</v>
+      </c>
+      <c r="B16" t="s">
         <v>45</v>
       </c>
-      <c r="B16" t="s">
+      <c r="C16" t="s">
         <v>46</v>
-      </c>
-      <c r="C16" t="s">
-        <v>47</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
+        <v>47</v>
+      </c>
+      <c r="B17" t="s">
         <v>48</v>
       </c>
-      <c r="B17" t="s">
+      <c r="C17" t="s">
         <v>49</v>
-      </c>
-      <c r="C17" t="s">
-        <v>50</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
+        <v>50</v>
+      </c>
+      <c r="B18" t="s">
         <v>51</v>
       </c>
-      <c r="B18" t="s">
+      <c r="C18" t="s">
         <v>52</v>
-      </c>
-      <c r="C18" t="s">
-        <v>53</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
+        <v>53</v>
+      </c>
+      <c r="B19" t="s">
         <v>54</v>
       </c>
-      <c r="B19" t="s">
+      <c r="C19" t="s">
         <v>55</v>
-      </c>
-      <c r="C19" t="s">
-        <v>56</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
+        <v>56</v>
+      </c>
+      <c r="B20" t="s">
         <v>57</v>
       </c>
-      <c r="B20" t="s">
+      <c r="C20" t="s">
         <v>58</v>
-      </c>
-      <c r="C20" t="s">
-        <v>59</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
+        <v>59</v>
+      </c>
+      <c r="B21" t="s">
         <v>60</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C21" t="s">
         <v>61</v>
-      </c>
-      <c r="C21" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
+        <v>62</v>
+      </c>
+      <c r="B22" t="s">
         <v>63</v>
       </c>
-      <c r="B22" t="s">
+      <c r="C22" t="s">
         <v>64</v>
-      </c>
-      <c r="C22" t="s">
-        <v>65</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
+        <v>65</v>
+      </c>
+      <c r="B23" t="s">
         <v>66</v>
       </c>
-      <c r="B23" t="s">
+      <c r="C23" t="s">
         <v>67</v>
-      </c>
-      <c r="C23" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
+        <v>68</v>
+      </c>
+      <c r="B24" t="s">
         <v>69</v>
       </c>
-      <c r="B24" t="s">
+      <c r="C24" t="s">
         <v>70</v>
-      </c>
-      <c r="C24" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
+        <v>71</v>
+      </c>
+      <c r="B25" t="s">
         <v>72</v>
       </c>
-      <c r="B25" t="s">
+      <c r="C25" t="s">
         <v>73</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
+        <v>74</v>
+      </c>
+      <c r="B26" t="s">
         <v>75</v>
       </c>
-      <c r="B26" t="s">
+      <c r="C26" t="s">
         <v>76</v>
-      </c>
-      <c r="C26" t="s">
-        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1424,7 +1424,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1437,7 +1437,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1463,7 +1463,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1489,7 +1489,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1502,7 +1502,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:C1"/>
+      <selection sqref="A1:B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1515,7 +1515,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1541,7 +1541,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
@@ -1554,7 +1554,7 @@
   <dimension ref="A1:C1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="D14" sqref="D14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1567,7 +1567,7 @@
         <v>1</v>
       </c>
       <c r="C1" t="s">
-        <v>2</v>
+        <v>77</v>
       </c>
     </row>
   </sheetData>
